--- a/app/ficheros/datos/tarifas_a_TPV/importa_TPV.xlsx
+++ b/app/ficheros/datos/tarifas_a_TPV/importa_TPV.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRONCO FERRERO PEQUEÑO</t>
+          <t>esdfsdfasdfsdf</t>
         </is>
       </c>
       <c r="C2" t="n">
